--- a/Output/a1.xlsx
+++ b/Output/a1.xlsx
@@ -445,17 +445,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11:09:44</t>
+          <t>10:18:48</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11:09:53</t>
+          <t>10:19:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.21</t>
         </is>
       </c>
     </row>
@@ -517,10 +517,10 @@
         <v>61</v>
       </c>
       <c r="E4" t="n">
-        <v>161.1838779676248</v>
+        <v>78.07344089056826</v>
       </c>
       <c r="F4" t="n">
-        <v>47.34117423288017</v>
+        <v>22.93088126905133</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -549,10 +549,10 @@
         <v>45</v>
       </c>
       <c r="E5" t="n">
-        <v>422.0985003836012</v>
+        <v>204.4539611233068</v>
       </c>
       <c r="F5" t="n">
-        <v>119.63585902827</v>
+        <v>57.94861921681829</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -581,10 +581,10 @@
         <v>61</v>
       </c>
       <c r="E6" t="n">
-        <v>269.7148701220569</v>
+        <v>130.6431402153713</v>
       </c>
       <c r="F6" t="n">
-        <v>114.3606557377049</v>
+        <v>55.39344262295082</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -613,10 +613,10 @@
         <v>61</v>
       </c>
       <c r="E7" t="n">
-        <v>226.7137494933354</v>
+        <v>109.8144724108343</v>
       </c>
       <c r="F7" t="n">
-        <v>8.651762624246894</v>
+        <v>4.190697521119589</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -645,10 +645,10 @@
         <v>61</v>
       </c>
       <c r="E8" t="n">
-        <v>186.3798927236298</v>
+        <v>90.2777605380082</v>
       </c>
       <c r="F8" t="n">
-        <v>73.20241748988815</v>
+        <v>35.45742097166457</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -677,10 +677,10 @@
         <v>61</v>
       </c>
       <c r="E9" t="n">
-        <v>324.7262895220963</v>
+        <v>157.2892964872654</v>
       </c>
       <c r="F9" t="n">
-        <v>131.4619182808306</v>
+        <v>63.67686666727732</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -709,10 +709,10 @@
         <v>61</v>
       </c>
       <c r="E10" t="n">
-        <v>161.2132928084999</v>
+        <v>78.08768870411713</v>
       </c>
       <c r="F10" t="n">
-        <v>104.9180327868852</v>
+        <v>50.81967213114754</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -741,10 +741,10 @@
         <v>61</v>
       </c>
       <c r="E11" t="n">
-        <v>167.0658290614649</v>
+        <v>80.92251095164708</v>
       </c>
       <c r="F11" t="n">
-        <v>83.42138284856328</v>
+        <v>40.40723231727284</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -773,10 +773,10 @@
         <v>61</v>
       </c>
       <c r="E12" t="n">
-        <v>188.6984227287373</v>
+        <v>91.40079850923212</v>
       </c>
       <c r="F12" t="n">
-        <v>91.25456624918885</v>
+        <v>44.20143052695085</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -805,10 +805,10 @@
         <v>61</v>
       </c>
       <c r="E13" t="n">
-        <v>147.9297773463868</v>
+        <v>71.65348590215611</v>
       </c>
       <c r="F13" t="n">
-        <v>90.13796347275877</v>
+        <v>43.66057605711753</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -837,10 +837,10 @@
         <v>61</v>
       </c>
       <c r="E14" t="n">
-        <v>205.7811359826367</v>
+        <v>99.67523774158964</v>
       </c>
       <c r="F14" t="n">
-        <v>60.99700187802706</v>
+        <v>29.54542278466935</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>

--- a/Output/a1.xlsx
+++ b/Output/a1.xlsx
@@ -445,17 +445,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10:18:48</t>
+          <t>10:26:10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10:19:00</t>
+          <t>10:26:23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.22</t>
         </is>
       </c>
     </row>
@@ -490,16 +490,8 @@
           <t>Velocity (um/s)</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>Start Coordinates</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>End Coordinates</t>
-        </is>
-      </c>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -517,20 +509,10 @@
         <v>61</v>
       </c>
       <c r="E4" t="n">
-        <v>78.07344089056826</v>
+        <v>161.1838779676248</v>
       </c>
       <c r="F4" t="n">
-        <v>22.93088126905133</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[101, 620, 13, 10]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(79, 625, 13, 10)</t>
-        </is>
+        <v>47.34117423288017</v>
       </c>
     </row>
     <row r="5">
@@ -549,20 +531,10 @@
         <v>45</v>
       </c>
       <c r="E5" t="n">
-        <v>204.4539611233068</v>
+        <v>422.0985003836012</v>
       </c>
       <c r="F5" t="n">
-        <v>57.94861921681829</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>[316, 415, 13, 13]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>(329, 375, 13, 13)</t>
-        </is>
+        <v>119.63585902827</v>
       </c>
     </row>
     <row r="6">
@@ -581,20 +553,10 @@
         <v>61</v>
       </c>
       <c r="E6" t="n">
-        <v>130.6431402153713</v>
+        <v>269.7148701220569</v>
       </c>
       <c r="F6" t="n">
-        <v>55.39344262295082</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[197, 319, 17, 21]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>(153, 351, 14, 17)</t>
-        </is>
+        <v>114.3606557377049</v>
       </c>
     </row>
     <row r="7">
@@ -613,20 +575,10 @@
         <v>61</v>
       </c>
       <c r="E7" t="n">
-        <v>109.8144724108343</v>
+        <v>226.7137494933354</v>
       </c>
       <c r="F7" t="n">
-        <v>4.190697521119589</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[80, 276, 13, 11]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>(84, 277, 13, 11)</t>
-        </is>
+        <v>8.651762624246894</v>
       </c>
     </row>
     <row r="8">
@@ -645,20 +597,10 @@
         <v>61</v>
       </c>
       <c r="E8" t="n">
-        <v>90.2777605380082</v>
+        <v>186.3798927236298</v>
       </c>
       <c r="F8" t="n">
-        <v>35.45742097166457</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[282, 226, 14, 17]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>(251, 242, 14, 17)</t>
-        </is>
+        <v>73.20241748988815</v>
       </c>
     </row>
     <row r="9">
@@ -677,20 +619,10 @@
         <v>61</v>
       </c>
       <c r="E9" t="n">
-        <v>157.2892964872654</v>
+        <v>324.7262895220963</v>
       </c>
       <c r="F9" t="n">
-        <v>63.67686666727732</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>[712, 220, 13, 10]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>(682, 275, 13, 10)</t>
-        </is>
+        <v>131.4619182808306</v>
       </c>
     </row>
     <row r="10">
@@ -709,20 +641,10 @@
         <v>61</v>
       </c>
       <c r="E10" t="n">
-        <v>78.08768870411713</v>
+        <v>161.2132928084999</v>
       </c>
       <c r="F10" t="n">
-        <v>50.81967213114754</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>[564, 171, 11, 10]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>(534, 211, 11, 10)</t>
-        </is>
+        <v>104.9180327868852</v>
       </c>
     </row>
     <row r="11">
@@ -741,20 +663,10 @@
         <v>61</v>
       </c>
       <c r="E11" t="n">
-        <v>80.92251095164708</v>
+        <v>167.0658290614649</v>
       </c>
       <c r="F11" t="n">
-        <v>40.40723231727284</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>[312, 145, 38, 27]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>(286, 174, 29, 20)</t>
-        </is>
+        <v>83.42138284856328</v>
       </c>
     </row>
     <row r="12">
@@ -773,20 +685,10 @@
         <v>61</v>
       </c>
       <c r="E12" t="n">
-        <v>91.40079850923212</v>
+        <v>188.6984227287373</v>
       </c>
       <c r="F12" t="n">
-        <v>44.20143052695085</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>[309, 62, 27, 24]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>(279, 93, 26, 24)</t>
-        </is>
+        <v>91.25456624918885</v>
       </c>
     </row>
     <row r="13">
@@ -805,20 +707,10 @@
         <v>61</v>
       </c>
       <c r="E13" t="n">
-        <v>71.65348590215611</v>
+        <v>147.9297773463868</v>
       </c>
       <c r="F13" t="n">
-        <v>43.66057605711753</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>[180, 59, 36, 41]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>(151, 91, 28, 32)</t>
-        </is>
+        <v>90.13796347275877</v>
       </c>
     </row>
     <row r="14">
@@ -837,20 +729,10 @@
         <v>61</v>
       </c>
       <c r="E14" t="n">
-        <v>99.67523774158964</v>
+        <v>205.7811359826367</v>
       </c>
       <c r="F14" t="n">
-        <v>29.54542278466935</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>[390, 43, 14, 11]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>(377, 69, 14, 11)</t>
-        </is>
+        <v>60.99700187802706</v>
       </c>
     </row>
   </sheetData>
